--- a/TestCasesUKGSimplified/TimeDetailsSorted_KEVCOL.xlsx
+++ b/TestCasesUKGSimplified/TimeDetailsSorted_KEVCOL.xlsx
@@ -1,24 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ayahealthcare.sharepoint.com/sites/Team-CostaRica-IT/Shared Documents/Projects/PDF Timesheet Reader - Last Version/QA/UKG - Simplified/V5/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_4F1C644D5628F90496D7958F66BC6A561B0B4498" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9E11B77-7C02-4BA7-9F3C-4619D7951FFF}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$R$682</definedName>
-  </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -2521,8 +2512,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2585,14 +2576,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -2639,7 +2622,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2671,27 +2654,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2723,24 +2688,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2916,16 +2863,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R682"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2981,7 +2926,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18">
       <c r="B2" t="s">
         <v>18</v>
       </c>
@@ -2998,7 +2943,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18">
       <c r="B3" t="s">
         <v>18</v>
       </c>
@@ -3015,7 +2960,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18">
       <c r="B4" t="s">
         <v>18</v>
       </c>
@@ -3035,7 +2980,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18">
       <c r="B5" t="s">
         <v>18</v>
       </c>
@@ -3055,7 +3000,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18">
       <c r="B6" t="s">
         <v>18</v>
       </c>
@@ -3075,7 +3020,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18">
       <c r="B7" t="s">
         <v>18</v>
       </c>
@@ -3095,7 +3040,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18">
       <c r="B8" t="s">
         <v>18</v>
       </c>
@@ -3115,7 +3060,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18">
       <c r="B9" t="s">
         <v>18</v>
       </c>
@@ -3135,7 +3080,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18">
       <c r="B10" t="s">
         <v>18</v>
       </c>
@@ -3155,7 +3100,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18">
       <c r="B11" t="s">
         <v>18</v>
       </c>
@@ -3175,7 +3120,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18">
       <c r="B12" t="s">
         <v>19</v>
       </c>
@@ -3192,7 +3137,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18">
       <c r="B13" t="s">
         <v>19</v>
       </c>
@@ -3212,7 +3157,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18">
       <c r="B14" t="s">
         <v>19</v>
       </c>
@@ -3229,7 +3174,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18">
       <c r="B15" t="s">
         <v>19</v>
       </c>
@@ -3249,7 +3194,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18">
       <c r="B16" t="s">
         <v>19</v>
       </c>
@@ -3266,7 +3211,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10">
       <c r="B17" t="s">
         <v>19</v>
       </c>
@@ -3286,7 +3231,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:10">
       <c r="B18" t="s">
         <v>19</v>
       </c>
@@ -3306,7 +3251,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10">
       <c r="B19" t="s">
         <v>19</v>
       </c>
@@ -3323,7 +3268,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:10">
       <c r="B20" t="s">
         <v>19</v>
       </c>
@@ -3343,7 +3288,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:10">
       <c r="B21" t="s">
         <v>19</v>
       </c>
@@ -3360,7 +3305,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:10">
       <c r="B22" t="s">
         <v>19</v>
       </c>
@@ -3380,7 +3325,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:10">
       <c r="B23" t="s">
         <v>19</v>
       </c>
@@ -3397,7 +3342,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:10">
       <c r="B24" t="s">
         <v>19</v>
       </c>
@@ -3417,7 +3362,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:10">
       <c r="B25" t="s">
         <v>19</v>
       </c>
@@ -3434,7 +3379,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:10">
       <c r="B26" t="s">
         <v>19</v>
       </c>
@@ -3454,7 +3399,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:10">
       <c r="B27" t="s">
         <v>19</v>
       </c>
@@ -3474,7 +3419,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:10">
       <c r="B28" t="s">
         <v>19</v>
       </c>
@@ -3494,7 +3439,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:10">
       <c r="B29" t="s">
         <v>19</v>
       </c>
@@ -3514,7 +3459,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:10">
       <c r="B30" t="s">
         <v>19</v>
       </c>
@@ -3534,7 +3479,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:10">
       <c r="B31" t="s">
         <v>19</v>
       </c>
@@ -3554,7 +3499,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:10">
       <c r="B32" t="s">
         <v>20</v>
       </c>
@@ -3571,7 +3516,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:10">
       <c r="B33" t="s">
         <v>20</v>
       </c>
@@ -3591,7 +3536,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:10">
       <c r="B34" t="s">
         <v>20</v>
       </c>
@@ -3611,7 +3556,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:10">
       <c r="B35" t="s">
         <v>20</v>
       </c>
@@ -3628,7 +3573,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:10">
       <c r="B36" t="s">
         <v>20</v>
       </c>
@@ -3648,7 +3593,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:10">
       <c r="B37" t="s">
         <v>20</v>
       </c>
@@ -3665,7 +3610,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:10">
       <c r="B38" t="s">
         <v>20</v>
       </c>
@@ -3685,7 +3630,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:10">
       <c r="B39" t="s">
         <v>20</v>
       </c>
@@ -3702,7 +3647,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:10">
       <c r="B40" t="s">
         <v>20</v>
       </c>
@@ -3722,7 +3667,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:10">
       <c r="B41" t="s">
         <v>20</v>
       </c>
@@ -3739,7 +3684,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:10">
       <c r="B42" t="s">
         <v>20</v>
       </c>
@@ -3759,7 +3704,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:10">
       <c r="B43" t="s">
         <v>20</v>
       </c>
@@ -3776,7 +3721,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:10">
       <c r="B44" t="s">
         <v>20</v>
       </c>
@@ -3796,7 +3741,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:10">
       <c r="B45" t="s">
         <v>20</v>
       </c>
@@ -3813,7 +3758,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:10">
       <c r="B46" t="s">
         <v>20</v>
       </c>
@@ -3833,7 +3778,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:10">
       <c r="B47" t="s">
         <v>21</v>
       </c>
@@ -3853,7 +3798,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:10">
       <c r="B48" t="s">
         <v>21</v>
       </c>
@@ -3873,7 +3818,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:10">
       <c r="B49" t="s">
         <v>21</v>
       </c>
@@ -3893,7 +3838,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:10">
       <c r="B50" t="s">
         <v>21</v>
       </c>
@@ -3913,7 +3858,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:10">
       <c r="B51" t="s">
         <v>21</v>
       </c>
@@ -3933,7 +3878,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:10">
       <c r="B52" t="s">
         <v>21</v>
       </c>
@@ -3953,7 +3898,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:10">
       <c r="B53" t="s">
         <v>21</v>
       </c>
@@ -3973,7 +3918,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:10">
       <c r="B54" t="s">
         <v>21</v>
       </c>
@@ -3993,7 +3938,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:10">
       <c r="B55" t="s">
         <v>22</v>
       </c>
@@ -4010,7 +3955,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:10">
       <c r="B56" t="s">
         <v>22</v>
       </c>
@@ -4030,7 +3975,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:10">
       <c r="B57" t="s">
         <v>22</v>
       </c>
@@ -4047,7 +3992,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:10">
       <c r="B58" t="s">
         <v>22</v>
       </c>
@@ -4067,7 +4012,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:10">
       <c r="B59" t="s">
         <v>22</v>
       </c>
@@ -4084,7 +4029,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:10">
       <c r="B60" t="s">
         <v>22</v>
       </c>
@@ -4104,7 +4049,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:10">
       <c r="B61" t="s">
         <v>22</v>
       </c>
@@ -4121,7 +4066,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:10">
       <c r="B62" t="s">
         <v>22</v>
       </c>
@@ -4141,7 +4086,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:10">
       <c r="B63" t="s">
         <v>23</v>
       </c>
@@ -4158,7 +4103,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:10">
       <c r="B64" t="s">
         <v>23</v>
       </c>
@@ -4178,7 +4123,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:10">
       <c r="B65" t="s">
         <v>23</v>
       </c>
@@ -4195,7 +4140,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:10">
       <c r="B66" t="s">
         <v>23</v>
       </c>
@@ -4215,7 +4160,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:10">
       <c r="B67" t="s">
         <v>23</v>
       </c>
@@ -4232,7 +4177,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:10">
       <c r="B68" t="s">
         <v>23</v>
       </c>
@@ -4252,7 +4197,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:10">
       <c r="B69" t="s">
         <v>23</v>
       </c>
@@ -4269,7 +4214,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:10">
       <c r="B70" t="s">
         <v>23</v>
       </c>
@@ -4289,7 +4234,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:10">
       <c r="B71" t="s">
         <v>24</v>
       </c>
@@ -4306,7 +4251,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:10">
       <c r="B72" t="s">
         <v>24</v>
       </c>
@@ -4326,7 +4271,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:10">
       <c r="B73" t="s">
         <v>24</v>
       </c>
@@ -4343,7 +4288,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:10">
       <c r="B74" t="s">
         <v>24</v>
       </c>
@@ -4363,7 +4308,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:10">
       <c r="B75" t="s">
         <v>24</v>
       </c>
@@ -4380,7 +4325,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:10">
       <c r="B76" t="s">
         <v>24</v>
       </c>
@@ -4400,7 +4345,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:10">
       <c r="B77" t="s">
         <v>24</v>
       </c>
@@ -4417,7 +4362,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:10">
       <c r="B78" t="s">
         <v>24</v>
       </c>
@@ -4437,7 +4382,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:10">
       <c r="B79" t="s">
         <v>25</v>
       </c>
@@ -4454,7 +4399,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:10">
       <c r="B80" t="s">
         <v>25</v>
       </c>
@@ -4474,7 +4419,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:10">
       <c r="B81" t="s">
         <v>25</v>
       </c>
@@ -4494,7 +4439,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:10">
       <c r="B82" t="s">
         <v>25</v>
       </c>
@@ -4514,7 +4459,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:10">
       <c r="B83" t="s">
         <v>25</v>
       </c>
@@ -4534,7 +4479,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:10">
       <c r="B84" t="s">
         <v>25</v>
       </c>
@@ -4554,7 +4499,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:10">
       <c r="B85" t="s">
         <v>25</v>
       </c>
@@ -4574,7 +4519,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:10">
       <c r="B86" t="s">
         <v>25</v>
       </c>
@@ -4591,7 +4536,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:10">
       <c r="B87" t="s">
         <v>25</v>
       </c>
@@ -4611,7 +4556,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:10">
       <c r="B88" t="s">
         <v>25</v>
       </c>
@@ -4631,7 +4576,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:10">
       <c r="B89" t="s">
         <v>25</v>
       </c>
@@ -4648,7 +4593,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:10">
       <c r="B90" t="s">
         <v>25</v>
       </c>
@@ -4668,7 +4613,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:10">
       <c r="B91" t="s">
         <v>25</v>
       </c>
@@ -4685,7 +4630,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:10">
       <c r="B92" t="s">
         <v>25</v>
       </c>
@@ -4705,7 +4650,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:10">
       <c r="B93" t="s">
         <v>25</v>
       </c>
@@ -4722,7 +4667,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:10">
       <c r="B94" t="s">
         <v>25</v>
       </c>
@@ -4742,7 +4687,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:10">
       <c r="B95" t="s">
         <v>25</v>
       </c>
@@ -4762,7 +4707,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:10">
       <c r="B96" t="s">
         <v>26</v>
       </c>
@@ -4779,7 +4724,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:10">
       <c r="B97" t="s">
         <v>26</v>
       </c>
@@ -4799,7 +4744,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:10">
       <c r="B98" t="s">
         <v>26</v>
       </c>
@@ -4816,7 +4761,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="99" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:10">
       <c r="B99" t="s">
         <v>26</v>
       </c>
@@ -4836,7 +4781,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:10">
       <c r="B100" t="s">
         <v>26</v>
       </c>
@@ -4853,7 +4798,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:10">
       <c r="B101" t="s">
         <v>26</v>
       </c>
@@ -4873,7 +4818,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:10">
       <c r="B102" t="s">
         <v>26</v>
       </c>
@@ -4890,7 +4835,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="103" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:10">
       <c r="B103" t="s">
         <v>26</v>
       </c>
@@ -4910,7 +4855,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="104" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:10">
       <c r="B104" t="s">
         <v>26</v>
       </c>
@@ -4927,7 +4872,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="105" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:10">
       <c r="B105" t="s">
         <v>26</v>
       </c>
@@ -4947,7 +4892,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="106" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:10">
       <c r="B106" t="s">
         <v>26</v>
       </c>
@@ -4964,7 +4909,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="107" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:10">
       <c r="B107" t="s">
         <v>26</v>
       </c>
@@ -4984,7 +4929,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="108" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:10">
       <c r="B108" t="s">
         <v>27</v>
       </c>
@@ -5004,7 +4949,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="109" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:10">
       <c r="B109" t="s">
         <v>27</v>
       </c>
@@ -5024,7 +4969,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="110" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:10">
       <c r="B110" t="s">
         <v>27</v>
       </c>
@@ -5044,7 +4989,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="111" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:10">
       <c r="B111" t="s">
         <v>27</v>
       </c>
@@ -5064,7 +5009,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="112" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:10">
       <c r="B112" t="s">
         <v>28</v>
       </c>
@@ -5084,7 +5029,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="113" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:10">
       <c r="B113" t="s">
         <v>28</v>
       </c>
@@ -5104,7 +5049,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="114" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:10">
       <c r="B114" t="s">
         <v>28</v>
       </c>
@@ -5124,7 +5069,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="115" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:10">
       <c r="B115" t="s">
         <v>28</v>
       </c>
@@ -5144,7 +5089,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="116" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:10">
       <c r="B116" t="s">
         <v>28</v>
       </c>
@@ -5164,7 +5109,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="117" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:10">
       <c r="B117" t="s">
         <v>28</v>
       </c>
@@ -5184,7 +5129,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="118" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:10">
       <c r="B118" t="s">
         <v>28</v>
       </c>
@@ -5204,7 +5149,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="119" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:10">
       <c r="B119" t="s">
         <v>28</v>
       </c>
@@ -5224,7 +5169,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="120" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:10">
       <c r="B120" t="s">
         <v>29</v>
       </c>
@@ -5241,7 +5186,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="121" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:10">
       <c r="B121" t="s">
         <v>29</v>
       </c>
@@ -5261,7 +5206,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="122" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:10">
       <c r="B122" t="s">
         <v>29</v>
       </c>
@@ -5278,7 +5223,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="123" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:10">
       <c r="B123" t="s">
         <v>29</v>
       </c>
@@ -5298,7 +5243,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="124" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:10">
       <c r="B124" t="s">
         <v>29</v>
       </c>
@@ -5315,7 +5260,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="125" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:10">
       <c r="B125" t="s">
         <v>29</v>
       </c>
@@ -5335,7 +5280,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="126" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:10">
       <c r="B126" t="s">
         <v>29</v>
       </c>
@@ -5352,7 +5297,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="127" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:10">
       <c r="B127" t="s">
         <v>29</v>
       </c>
@@ -5372,7 +5317,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="128" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:10">
       <c r="B128" t="s">
         <v>29</v>
       </c>
@@ -5389,7 +5334,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="129" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:10">
       <c r="B129" t="s">
         <v>29</v>
       </c>
@@ -5409,7 +5354,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="130" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:10">
       <c r="B130" t="s">
         <v>29</v>
       </c>
@@ -5426,7 +5371,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="131" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:10">
       <c r="B131" t="s">
         <v>29</v>
       </c>
@@ -5446,7 +5391,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="132" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:10">
       <c r="B132" t="s">
         <v>29</v>
       </c>
@@ -5463,7 +5408,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="133" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:10">
       <c r="B133" t="s">
         <v>29</v>
       </c>
@@ -5483,7 +5428,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="134" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:10">
       <c r="B134" t="s">
         <v>29</v>
       </c>
@@ -5500,7 +5445,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="135" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:10">
       <c r="B135" t="s">
         <v>29</v>
       </c>
@@ -5520,7 +5465,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="136" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:10">
       <c r="B136" t="s">
         <v>30</v>
       </c>
@@ -5537,7 +5482,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="137" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:10">
       <c r="B137" t="s">
         <v>30</v>
       </c>
@@ -5557,7 +5502,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="138" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:10">
       <c r="B138" t="s">
         <v>30</v>
       </c>
@@ -5574,7 +5519,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="139" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:10">
       <c r="B139" t="s">
         <v>30</v>
       </c>
@@ -5594,7 +5539,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="140" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:10">
       <c r="B140" t="s">
         <v>30</v>
       </c>
@@ -5611,7 +5556,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="141" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:10">
       <c r="B141" t="s">
         <v>30</v>
       </c>
@@ -5631,7 +5576,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="142" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:10">
       <c r="B142" t="s">
         <v>30</v>
       </c>
@@ -5648,7 +5593,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="143" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:10">
       <c r="B143" t="s">
         <v>30</v>
       </c>
@@ -5668,7 +5613,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="144" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:10">
       <c r="B144" t="s">
         <v>31</v>
       </c>
@@ -5685,7 +5630,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="145" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:10">
       <c r="B145" t="s">
         <v>31</v>
       </c>
@@ -5705,7 +5650,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="146" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:10">
       <c r="B146" t="s">
         <v>31</v>
       </c>
@@ -5722,7 +5667,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="147" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:10">
       <c r="B147" t="s">
         <v>31</v>
       </c>
@@ -5742,7 +5687,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="148" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:10">
       <c r="B148" t="s">
         <v>31</v>
       </c>
@@ -5759,7 +5704,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="149" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:10">
       <c r="B149" t="s">
         <v>31</v>
       </c>
@@ -5779,7 +5724,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="150" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:10">
       <c r="B150" t="s">
         <v>31</v>
       </c>
@@ -5796,7 +5741,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="151" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:10">
       <c r="B151" t="s">
         <v>31</v>
       </c>
@@ -5816,7 +5761,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="152" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:10">
       <c r="B152" t="s">
         <v>31</v>
       </c>
@@ -5833,7 +5778,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="153" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:10">
       <c r="B153" t="s">
         <v>31</v>
       </c>
@@ -5853,7 +5798,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="154" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:10">
       <c r="B154" t="s">
         <v>31</v>
       </c>
@@ -5870,7 +5815,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="155" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:10">
       <c r="B155" t="s">
         <v>31</v>
       </c>
@@ -5890,7 +5835,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="156" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:10">
       <c r="B156" t="s">
         <v>31</v>
       </c>
@@ -5907,7 +5852,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="157" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:10">
       <c r="B157" t="s">
         <v>31</v>
       </c>
@@ -5927,7 +5872,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="158" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:10">
       <c r="B158" t="s">
         <v>31</v>
       </c>
@@ -5944,7 +5889,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="159" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:10">
       <c r="B159" t="s">
         <v>31</v>
       </c>
@@ -5964,7 +5909,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="160" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:10">
       <c r="B160" t="s">
         <v>32</v>
       </c>
@@ -5981,7 +5926,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="161" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:10">
       <c r="B161" t="s">
         <v>32</v>
       </c>
@@ -6001,7 +5946,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="162" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:10">
       <c r="B162" t="s">
         <v>32</v>
       </c>
@@ -6018,7 +5963,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="163" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:10">
       <c r="B163" t="s">
         <v>32</v>
       </c>
@@ -6038,7 +5983,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="164" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:10">
       <c r="B164" t="s">
         <v>32</v>
       </c>
@@ -6058,7 +6003,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="165" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:10">
       <c r="B165" t="s">
         <v>32</v>
       </c>
@@ -6075,7 +6020,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="166" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:10">
       <c r="B166" t="s">
         <v>32</v>
       </c>
@@ -6095,7 +6040,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="167" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:10">
       <c r="B167" t="s">
         <v>32</v>
       </c>
@@ -6112,7 +6057,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="168" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:10">
       <c r="B168" t="s">
         <v>32</v>
       </c>
@@ -6132,7 +6077,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="169" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:10">
       <c r="B169" t="s">
         <v>32</v>
       </c>
@@ -6149,7 +6094,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="170" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:10">
       <c r="B170" t="s">
         <v>32</v>
       </c>
@@ -6169,7 +6114,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="171" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:10">
       <c r="B171" t="s">
         <v>32</v>
       </c>
@@ -6186,7 +6131,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="172" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:10">
       <c r="B172" t="s">
         <v>32</v>
       </c>
@@ -6206,7 +6151,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="173" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:10">
       <c r="B173" t="s">
         <v>32</v>
       </c>
@@ -6223,7 +6168,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="174" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:10">
       <c r="B174" t="s">
         <v>32</v>
       </c>
@@ -6243,7 +6188,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="175" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:10">
       <c r="B175" t="s">
         <v>33</v>
       </c>
@@ -6257,7 +6202,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="176" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:10">
       <c r="B176" t="s">
         <v>34</v>
       </c>
@@ -6274,7 +6219,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="177" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:10">
       <c r="B177" t="s">
         <v>34</v>
       </c>
@@ -6294,7 +6239,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="178" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:10">
       <c r="B178" t="s">
         <v>34</v>
       </c>
@@ -6314,7 +6259,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="179" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:10">
       <c r="B179" t="s">
         <v>34</v>
       </c>
@@ -6331,7 +6276,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="180" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:10">
       <c r="B180" t="s">
         <v>34</v>
       </c>
@@ -6351,7 +6296,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="181" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:10">
       <c r="B181" t="s">
         <v>34</v>
       </c>
@@ -6368,7 +6313,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="182" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:10">
       <c r="B182" t="s">
         <v>34</v>
       </c>
@@ -6388,7 +6333,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="183" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:10">
       <c r="B183" t="s">
         <v>34</v>
       </c>
@@ -6405,7 +6350,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="184" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:10">
       <c r="B184" t="s">
         <v>34</v>
       </c>
@@ -6425,7 +6370,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="185" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:10">
       <c r="B185" t="s">
         <v>34</v>
       </c>
@@ -6442,7 +6387,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="186" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:10">
       <c r="B186" t="s">
         <v>34</v>
       </c>
@@ -6462,7 +6407,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="187" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:10">
       <c r="B187" t="s">
         <v>34</v>
       </c>
@@ -6479,7 +6424,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="188" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:10">
       <c r="B188" t="s">
         <v>34</v>
       </c>
@@ -6499,7 +6444,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="189" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:10">
       <c r="B189" t="s">
         <v>34</v>
       </c>
@@ -6516,7 +6461,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="190" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:10">
       <c r="B190" t="s">
         <v>34</v>
       </c>
@@ -6536,7 +6481,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="191" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:10">
       <c r="B191" t="s">
         <v>34</v>
       </c>
@@ -6553,7 +6498,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="192" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:10">
       <c r="B192" t="s">
         <v>34</v>
       </c>
@@ -6573,7 +6518,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="193" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:10">
       <c r="B193" t="s">
         <v>34</v>
       </c>
@@ -6593,7 +6538,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="194" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:10">
       <c r="B194" t="s">
         <v>34</v>
       </c>
@@ -6613,7 +6558,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="195" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:10">
       <c r="B195" t="s">
         <v>34</v>
       </c>
@@ -6630,7 +6575,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="196" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:10">
       <c r="B196" t="s">
         <v>34</v>
       </c>
@@ -6650,7 +6595,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="197" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:10">
       <c r="B197" t="s">
         <v>35</v>
       </c>
@@ -6670,7 +6615,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="198" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:10">
       <c r="B198" t="s">
         <v>35</v>
       </c>
@@ -6687,7 +6632,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="199" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:10">
       <c r="B199" t="s">
         <v>35</v>
       </c>
@@ -6707,7 +6652,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="200" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:10">
       <c r="B200" t="s">
         <v>35</v>
       </c>
@@ -6724,7 +6669,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="201" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:10">
       <c r="B201" t="s">
         <v>35</v>
       </c>
@@ -6744,7 +6689,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="202" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:10">
       <c r="B202" t="s">
         <v>35</v>
       </c>
@@ -6761,7 +6706,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="203" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:10">
       <c r="B203" t="s">
         <v>35</v>
       </c>
@@ -6781,7 +6726,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="204" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:10">
       <c r="B204" t="s">
         <v>35</v>
       </c>
@@ -6798,7 +6743,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="205" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:10">
       <c r="B205" t="s">
         <v>35</v>
       </c>
@@ -6818,7 +6763,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="206" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:10">
       <c r="B206" t="s">
         <v>35</v>
       </c>
@@ -6838,7 +6783,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="207" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:10">
       <c r="B207" t="s">
         <v>35</v>
       </c>
@@ -6858,7 +6803,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="208" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:10">
       <c r="B208" t="s">
         <v>35</v>
       </c>
@@ -6878,7 +6823,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="209" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:10">
       <c r="B209" t="s">
         <v>35</v>
       </c>
@@ -6895,7 +6840,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="210" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:10">
       <c r="B210" t="s">
         <v>35</v>
       </c>
@@ -6915,7 +6860,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="211" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:10">
       <c r="B211" t="s">
         <v>36</v>
       </c>
@@ -6932,7 +6877,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="212" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:10">
       <c r="B212" t="s">
         <v>36</v>
       </c>
@@ -6949,7 +6894,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="213" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:10">
       <c r="B213" t="s">
         <v>36</v>
       </c>
@@ -6969,7 +6914,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="214" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:10">
       <c r="B214" t="s">
         <v>36</v>
       </c>
@@ -6986,7 +6931,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="215" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:10">
       <c r="B215" t="s">
         <v>36</v>
       </c>
@@ -7006,7 +6951,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="216" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:10">
       <c r="B216" t="s">
         <v>36</v>
       </c>
@@ -7023,7 +6968,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="217" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:10">
       <c r="B217" t="s">
         <v>36</v>
       </c>
@@ -7043,7 +6988,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="218" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:10">
       <c r="B218" t="s">
         <v>36</v>
       </c>
@@ -7060,7 +7005,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="219" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:10">
       <c r="B219" t="s">
         <v>36</v>
       </c>
@@ -7080,7 +7025,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="220" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:10">
       <c r="B220" t="s">
         <v>36</v>
       </c>
@@ -7097,7 +7042,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="221" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="221" spans="2:10">
       <c r="B221" t="s">
         <v>36</v>
       </c>
@@ -7117,7 +7062,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="222" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:10">
       <c r="B222" t="s">
         <v>36</v>
       </c>
@@ -7137,7 +7082,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="223" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="223" spans="2:10">
       <c r="B223" t="s">
         <v>36</v>
       </c>
@@ -7154,7 +7099,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="224" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="224" spans="2:10">
       <c r="B224" t="s">
         <v>36</v>
       </c>
@@ -7174,7 +7119,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="225" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="225" spans="2:10">
       <c r="B225" t="s">
         <v>36</v>
       </c>
@@ -7194,7 +7139,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="226" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:10">
       <c r="B226" t="s">
         <v>37</v>
       </c>
@@ -7211,7 +7156,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="227" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="227" spans="2:10">
       <c r="B227" t="s">
         <v>37</v>
       </c>
@@ -7231,7 +7176,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="228" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="228" spans="2:10">
       <c r="B228" t="s">
         <v>37</v>
       </c>
@@ -7248,7 +7193,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="229" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="229" spans="2:10">
       <c r="B229" t="s">
         <v>37</v>
       </c>
@@ -7268,7 +7213,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="230" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="230" spans="2:10">
       <c r="B230" t="s">
         <v>37</v>
       </c>
@@ -7285,7 +7230,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="231" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="231" spans="2:10">
       <c r="B231" t="s">
         <v>37</v>
       </c>
@@ -7305,7 +7250,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="232" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="232" spans="2:10">
       <c r="B232" t="s">
         <v>37</v>
       </c>
@@ -7322,7 +7267,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="233" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="233" spans="2:10">
       <c r="B233" t="s">
         <v>37</v>
       </c>
@@ -7342,7 +7287,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="234" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="234" spans="2:10">
       <c r="B234" t="s">
         <v>37</v>
       </c>
@@ -7359,7 +7304,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="235" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="235" spans="2:10">
       <c r="B235" t="s">
         <v>37</v>
       </c>
@@ -7379,7 +7324,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="236" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="236" spans="2:10">
       <c r="B236" t="s">
         <v>37</v>
       </c>
@@ -7396,7 +7341,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="237" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="237" spans="2:10">
       <c r="B237" t="s">
         <v>37</v>
       </c>
@@ -7416,7 +7361,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="238" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="238" spans="2:10">
       <c r="B238" t="s">
         <v>37</v>
       </c>
@@ -7433,7 +7378,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="239" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="239" spans="2:10">
       <c r="B239" t="s">
         <v>37</v>
       </c>
@@ -7453,7 +7398,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="240" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="240" spans="2:10">
       <c r="B240" t="s">
         <v>37</v>
       </c>
@@ -7470,7 +7415,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="241" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="241" spans="2:10">
       <c r="B241" t="s">
         <v>37</v>
       </c>
@@ -7490,7 +7435,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="242" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="242" spans="2:10">
       <c r="B242" t="s">
         <v>38</v>
       </c>
@@ -7507,7 +7452,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="243" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="243" spans="2:10">
       <c r="B243" t="s">
         <v>38</v>
       </c>
@@ -7527,7 +7472,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="244" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="244" spans="2:10">
       <c r="B244" t="s">
         <v>38</v>
       </c>
@@ -7547,7 +7492,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="245" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="245" spans="2:10">
       <c r="B245" t="s">
         <v>38</v>
       </c>
@@ -7564,7 +7509,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="246" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="246" spans="2:10">
       <c r="B246" t="s">
         <v>38</v>
       </c>
@@ -7584,7 +7529,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="247" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="247" spans="2:10">
       <c r="B247" t="s">
         <v>38</v>
       </c>
@@ -7601,7 +7546,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="248" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="248" spans="2:10">
       <c r="B248" t="s">
         <v>38</v>
       </c>
@@ -7621,7 +7566,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="249" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="249" spans="2:10">
       <c r="B249" t="s">
         <v>38</v>
       </c>
@@ -7641,7 +7586,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="250" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="250" spans="2:10">
       <c r="B250" t="s">
         <v>38</v>
       </c>
@@ -7658,7 +7603,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="251" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="251" spans="2:10">
       <c r="B251" t="s">
         <v>38</v>
       </c>
@@ -7678,7 +7623,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="252" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="252" spans="2:10">
       <c r="B252" t="s">
         <v>38</v>
       </c>
@@ -7698,7 +7643,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="253" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="253" spans="2:10">
       <c r="B253" t="s">
         <v>38</v>
       </c>
@@ -7715,7 +7660,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="254" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="254" spans="2:10">
       <c r="B254" t="s">
         <v>38</v>
       </c>
@@ -7735,7 +7680,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="255" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="255" spans="2:10">
       <c r="B255" t="s">
         <v>38</v>
       </c>
@@ -7752,7 +7697,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="256" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="256" spans="2:10">
       <c r="B256" t="s">
         <v>38</v>
       </c>
@@ -7772,7 +7717,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="257" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="257" spans="2:10">
       <c r="B257" t="s">
         <v>38</v>
       </c>
@@ -7792,7 +7737,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="258" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="258" spans="2:10">
       <c r="B258" t="s">
         <v>38</v>
       </c>
@@ -7809,7 +7754,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="259" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="259" spans="2:10">
       <c r="B259" t="s">
         <v>38</v>
       </c>
@@ -7829,7 +7774,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="260" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="260" spans="2:10">
       <c r="B260" t="s">
         <v>39</v>
       </c>
@@ -7849,7 +7794,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="261" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="261" spans="2:10">
       <c r="B261" t="s">
         <v>39</v>
       </c>
@@ -7869,7 +7814,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="262" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="262" spans="2:10">
       <c r="B262" t="s">
         <v>39</v>
       </c>
@@ -7889,7 +7834,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="263" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="263" spans="2:10">
       <c r="B263" t="s">
         <v>39</v>
       </c>
@@ -7909,7 +7854,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="264" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="264" spans="2:10">
       <c r="B264" t="s">
         <v>39</v>
       </c>
@@ -7929,7 +7874,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="265" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="265" spans="2:10">
       <c r="B265" t="s">
         <v>39</v>
       </c>
@@ -7949,7 +7894,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="266" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="266" spans="2:10">
       <c r="B266" t="s">
         <v>39</v>
       </c>
@@ -7969,7 +7914,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="267" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="267" spans="2:10">
       <c r="B267" t="s">
         <v>39</v>
       </c>
@@ -7989,7 +7934,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="268" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="268" spans="2:10">
       <c r="B268" t="s">
         <v>39</v>
       </c>
@@ -8009,7 +7954,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="269" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="269" spans="2:10">
       <c r="B269" t="s">
         <v>39</v>
       </c>
@@ -8029,7 +7974,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="270" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="270" spans="2:10">
       <c r="B270" t="s">
         <v>39</v>
       </c>
@@ -8049,7 +7994,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="271" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="271" spans="2:10">
       <c r="B271" t="s">
         <v>40</v>
       </c>
@@ -8066,7 +8011,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="272" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="272" spans="2:10">
       <c r="B272" t="s">
         <v>40</v>
       </c>
@@ -8083,7 +8028,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="273" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="273" spans="2:10">
       <c r="B273" t="s">
         <v>40</v>
       </c>
@@ -8100,7 +8045,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="274" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="274" spans="2:10">
       <c r="B274" t="s">
         <v>40</v>
       </c>
@@ -8120,7 +8065,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="275" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="275" spans="2:10">
       <c r="B275" t="s">
         <v>40</v>
       </c>
@@ -8137,7 +8082,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="276" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="276" spans="2:10">
       <c r="B276" t="s">
         <v>40</v>
       </c>
@@ -8157,7 +8102,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="277" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="277" spans="2:10">
       <c r="B277" t="s">
         <v>40</v>
       </c>
@@ -8174,7 +8119,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="278" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="278" spans="2:10">
       <c r="B278" t="s">
         <v>40</v>
       </c>
@@ -8194,7 +8139,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="279" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="279" spans="2:10">
       <c r="B279" t="s">
         <v>40</v>
       </c>
@@ -8211,7 +8156,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="280" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="280" spans="2:10">
       <c r="B280" t="s">
         <v>40</v>
       </c>
@@ -8231,7 +8176,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="281" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="281" spans="2:10">
       <c r="B281" t="s">
         <v>40</v>
       </c>
@@ -8248,7 +8193,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="282" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="282" spans="2:10">
       <c r="B282" t="s">
         <v>40</v>
       </c>
@@ -8268,7 +8213,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="283" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="283" spans="2:10">
       <c r="B283" t="s">
         <v>40</v>
       </c>
@@ -8285,7 +8230,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="284" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="284" spans="2:10">
       <c r="B284" t="s">
         <v>40</v>
       </c>
@@ -8305,7 +8250,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="285" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="285" spans="2:10">
       <c r="B285" t="s">
         <v>40</v>
       </c>
@@ -8322,7 +8267,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="286" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="286" spans="2:10">
       <c r="B286" t="s">
         <v>40</v>
       </c>
@@ -8342,7 +8287,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="287" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="287" spans="2:10">
       <c r="B287" t="s">
         <v>40</v>
       </c>
@@ -8359,7 +8304,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="288" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="288" spans="2:10">
       <c r="B288" t="s">
         <v>40</v>
       </c>
@@ -8379,7 +8324,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="289" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="289" spans="2:10">
       <c r="B289" t="s">
         <v>41</v>
       </c>
@@ -8396,7 +8341,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="290" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="290" spans="2:10">
       <c r="B290" t="s">
         <v>41</v>
       </c>
@@ -8416,7 +8361,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="291" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="291" spans="2:10">
       <c r="B291" t="s">
         <v>41</v>
       </c>
@@ -8433,7 +8378,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="292" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="292" spans="2:10">
       <c r="B292" t="s">
         <v>41</v>
       </c>
@@ -8453,7 +8398,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="293" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="293" spans="2:10">
       <c r="B293" t="s">
         <v>41</v>
       </c>
@@ -8470,7 +8415,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="294" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="294" spans="2:10">
       <c r="B294" t="s">
         <v>41</v>
       </c>
@@ -8490,7 +8435,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="295" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="295" spans="2:10">
       <c r="B295" t="s">
         <v>41</v>
       </c>
@@ -8507,7 +8452,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="296" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="296" spans="2:10">
       <c r="B296" t="s">
         <v>41</v>
       </c>
@@ -8527,7 +8472,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="297" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="297" spans="2:10">
       <c r="B297" t="s">
         <v>42</v>
       </c>
@@ -8544,7 +8489,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="298" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="298" spans="2:10">
       <c r="B298" t="s">
         <v>42</v>
       </c>
@@ -8564,7 +8509,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="299" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="299" spans="2:10">
       <c r="B299" t="s">
         <v>42</v>
       </c>
@@ -8581,7 +8526,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="300" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="300" spans="2:10">
       <c r="B300" t="s">
         <v>42</v>
       </c>
@@ -8601,7 +8546,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="301" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="301" spans="2:10">
       <c r="B301" t="s">
         <v>42</v>
       </c>
@@ -8618,7 +8563,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="302" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="302" spans="2:10">
       <c r="B302" t="s">
         <v>42</v>
       </c>
@@ -8638,7 +8583,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="303" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="303" spans="2:10">
       <c r="B303" t="s">
         <v>42</v>
       </c>
@@ -8658,7 +8603,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="304" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="304" spans="2:10">
       <c r="B304" t="s">
         <v>42</v>
       </c>
@@ -8675,7 +8620,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="305" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="305" spans="2:10">
       <c r="B305" t="s">
         <v>42</v>
       </c>
@@ -8695,7 +8640,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="306" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="306" spans="2:10">
       <c r="B306" t="s">
         <v>42</v>
       </c>
@@ -8712,7 +8657,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="307" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="307" spans="2:10">
       <c r="B307" t="s">
         <v>42</v>
       </c>
@@ -8732,7 +8677,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="308" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="308" spans="2:10">
       <c r="B308" t="s">
         <v>42</v>
       </c>
@@ -8749,7 +8694,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="309" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="309" spans="2:10">
       <c r="B309" t="s">
         <v>42</v>
       </c>
@@ -8769,7 +8714,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="310" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="310" spans="2:10">
       <c r="B310" t="s">
         <v>42</v>
       </c>
@@ -8786,7 +8731,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="311" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="311" spans="2:10">
       <c r="B311" t="s">
         <v>42</v>
       </c>
@@ -8806,7 +8751,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="312" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="312" spans="2:10">
       <c r="B312" t="s">
         <v>42</v>
       </c>
@@ -8823,7 +8768,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="313" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="313" spans="2:10">
       <c r="B313" t="s">
         <v>42</v>
       </c>
@@ -8843,7 +8788,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="314" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="314" spans="2:10">
       <c r="B314" t="s">
         <v>42</v>
       </c>
@@ -8860,7 +8805,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="315" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="315" spans="2:10">
       <c r="B315" t="s">
         <v>42</v>
       </c>
@@ -8880,7 +8825,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="316" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="316" spans="2:10">
       <c r="B316" t="s">
         <v>43</v>
       </c>
@@ -8894,7 +8839,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="317" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="317" spans="2:10">
       <c r="B317" t="s">
         <v>43</v>
       </c>
@@ -8911,7 +8856,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="318" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="318" spans="2:10">
       <c r="B318" t="s">
         <v>43</v>
       </c>
@@ -8931,7 +8876,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="319" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="319" spans="2:10">
       <c r="B319" t="s">
         <v>43</v>
       </c>
@@ -8948,7 +8893,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="320" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="320" spans="2:10">
       <c r="B320" t="s">
         <v>43</v>
       </c>
@@ -8968,7 +8913,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="321" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="321" spans="2:10">
       <c r="B321" t="s">
         <v>43</v>
       </c>
@@ -8985,7 +8930,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="322" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="322" spans="2:10">
       <c r="B322" t="s">
         <v>43</v>
       </c>
@@ -9005,7 +8950,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="323" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="323" spans="2:10">
       <c r="B323" t="s">
         <v>43</v>
       </c>
@@ -9022,7 +8967,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="324" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="324" spans="2:10">
       <c r="B324" t="s">
         <v>43</v>
       </c>
@@ -9042,7 +8987,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="325" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="325" spans="2:10">
       <c r="B325" t="s">
         <v>43</v>
       </c>
@@ -9059,7 +9004,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="326" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="326" spans="2:10">
       <c r="B326" t="s">
         <v>43</v>
       </c>
@@ -9079,7 +9024,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="327" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="327" spans="2:10">
       <c r="B327" t="s">
         <v>43</v>
       </c>
@@ -9096,7 +9041,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="328" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="328" spans="2:10">
       <c r="B328" t="s">
         <v>43</v>
       </c>
@@ -9116,7 +9061,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="329" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="329" spans="2:10">
       <c r="B329" t="s">
         <v>43</v>
       </c>
@@ -9133,7 +9078,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="330" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="330" spans="2:10">
       <c r="B330" t="s">
         <v>43</v>
       </c>
@@ -9153,7 +9098,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="331" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="331" spans="2:10">
       <c r="B331" t="s">
         <v>43</v>
       </c>
@@ -9170,7 +9115,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="332" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="332" spans="2:10">
       <c r="B332" t="s">
         <v>43</v>
       </c>
@@ -9190,7 +9135,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="333" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="333" spans="2:10">
       <c r="B333" t="s">
         <v>44</v>
       </c>
@@ -9207,7 +9152,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="334" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="334" spans="2:10">
       <c r="B334" t="s">
         <v>44</v>
       </c>
@@ -9227,7 +9172,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="335" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="335" spans="2:10">
       <c r="B335" t="s">
         <v>44</v>
       </c>
@@ -9244,7 +9189,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="336" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="336" spans="2:10">
       <c r="B336" t="s">
         <v>44</v>
       </c>
@@ -9264,7 +9209,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="337" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="337" spans="2:10">
       <c r="B337" t="s">
         <v>44</v>
       </c>
@@ -9281,7 +9226,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="338" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="338" spans="2:10">
       <c r="B338" t="s">
         <v>44</v>
       </c>
@@ -9301,7 +9246,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="339" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="339" spans="2:10">
       <c r="B339" t="s">
         <v>44</v>
       </c>
@@ -9318,7 +9263,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="340" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="340" spans="2:10">
       <c r="B340" t="s">
         <v>44</v>
       </c>
@@ -9338,7 +9283,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="341" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="341" spans="2:10">
       <c r="B341" t="s">
         <v>44</v>
       </c>
@@ -9355,7 +9300,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="342" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="342" spans="2:10">
       <c r="B342" t="s">
         <v>44</v>
       </c>
@@ -9375,7 +9320,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="343" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="343" spans="2:10">
       <c r="B343" t="s">
         <v>44</v>
       </c>
@@ -9392,7 +9337,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="344" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="344" spans="2:10">
       <c r="B344" t="s">
         <v>44</v>
       </c>
@@ -9412,7 +9357,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="345" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="345" spans="2:10">
       <c r="B345" t="s">
         <v>44</v>
       </c>
@@ -9432,7 +9377,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="346" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="346" spans="2:10">
       <c r="B346" t="s">
         <v>44</v>
       </c>
@@ -9449,7 +9394,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="347" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="347" spans="2:10">
       <c r="B347" t="s">
         <v>44</v>
       </c>
@@ -9469,7 +9414,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="348" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="348" spans="2:10">
       <c r="B348" t="s">
         <v>44</v>
       </c>
@@ -9486,7 +9431,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="349" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="349" spans="2:10">
       <c r="B349" t="s">
         <v>44</v>
       </c>
@@ -9506,7 +9451,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="350" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="350" spans="2:10">
       <c r="B350" t="s">
         <v>45</v>
       </c>
@@ -9523,7 +9468,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="351" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="351" spans="2:10">
       <c r="B351" t="s">
         <v>45</v>
       </c>
@@ -9543,7 +9488,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="352" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="352" spans="2:10">
       <c r="B352" t="s">
         <v>45</v>
       </c>
@@ -9563,7 +9508,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="353" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="353" spans="2:10">
       <c r="B353" t="s">
         <v>45</v>
       </c>
@@ -9580,7 +9525,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="354" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="354" spans="2:10">
       <c r="B354" t="s">
         <v>45</v>
       </c>
@@ -9600,7 +9545,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="355" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="355" spans="2:10">
       <c r="B355" t="s">
         <v>45</v>
       </c>
@@ -9617,7 +9562,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="356" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="356" spans="2:10">
       <c r="B356" t="s">
         <v>45</v>
       </c>
@@ -9637,7 +9582,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="357" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="357" spans="2:10">
       <c r="B357" t="s">
         <v>45</v>
       </c>
@@ -9654,7 +9599,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="358" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="358" spans="2:10">
       <c r="B358" t="s">
         <v>45</v>
       </c>
@@ -9674,7 +9619,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="359" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="359" spans="2:10">
       <c r="B359" t="s">
         <v>45</v>
       </c>
@@ -9691,7 +9636,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="360" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="360" spans="2:10">
       <c r="B360" t="s">
         <v>45</v>
       </c>
@@ -9711,7 +9656,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="361" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="361" spans="2:10">
       <c r="B361" t="s">
         <v>45</v>
       </c>
@@ -9728,7 +9673,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="362" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="362" spans="2:10">
       <c r="B362" t="s">
         <v>45</v>
       </c>
@@ -9748,7 +9693,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="363" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="363" spans="2:10">
       <c r="B363" t="s">
         <v>45</v>
       </c>
@@ -9765,7 +9710,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="364" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="364" spans="2:10">
       <c r="B364" t="s">
         <v>45</v>
       </c>
@@ -9785,7 +9730,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="365" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="365" spans="2:10">
       <c r="B365" t="s">
         <v>46</v>
       </c>
@@ -9802,7 +9747,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="366" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="366" spans="2:10">
       <c r="B366" t="s">
         <v>46</v>
       </c>
@@ -9822,7 +9767,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="367" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="367" spans="2:10">
       <c r="B367" t="s">
         <v>46</v>
       </c>
@@ -9839,7 +9784,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="368" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="368" spans="2:10">
       <c r="B368" t="s">
         <v>46</v>
       </c>
@@ -9859,7 +9804,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="369" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="369" spans="2:10">
       <c r="B369" t="s">
         <v>46</v>
       </c>
@@ -9876,7 +9821,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="370" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="370" spans="2:10">
       <c r="B370" t="s">
         <v>46</v>
       </c>
@@ -9896,7 +9841,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="371" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="371" spans="2:10">
       <c r="B371" t="s">
         <v>46</v>
       </c>
@@ -9913,7 +9858,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="372" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="372" spans="2:10">
       <c r="B372" t="s">
         <v>46</v>
       </c>
@@ -9933,7 +9878,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="373" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="373" spans="2:10">
       <c r="B373" t="s">
         <v>46</v>
       </c>
@@ -9953,7 +9898,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="374" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="374" spans="2:10">
       <c r="B374" t="s">
         <v>46</v>
       </c>
@@ -9973,7 +9918,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="375" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="375" spans="2:10">
       <c r="B375" t="s">
         <v>46</v>
       </c>
@@ -9990,7 +9935,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="376" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="376" spans="2:10">
       <c r="B376" t="s">
         <v>46</v>
       </c>
@@ -10010,7 +9955,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="377" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="377" spans="2:10">
       <c r="B377" t="s">
         <v>47</v>
       </c>
@@ -10027,7 +9972,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="378" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="378" spans="2:10">
       <c r="B378" t="s">
         <v>47</v>
       </c>
@@ -10047,7 +9992,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="379" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="379" spans="2:10">
       <c r="B379" t="s">
         <v>47</v>
       </c>
@@ -10064,7 +10009,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="380" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="380" spans="2:10">
       <c r="B380" t="s">
         <v>47</v>
       </c>
@@ -10084,7 +10029,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="381" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="381" spans="2:10">
       <c r="B381" t="s">
         <v>47</v>
       </c>
@@ -10101,7 +10046,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="382" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="382" spans="2:10">
       <c r="B382" t="s">
         <v>47</v>
       </c>
@@ -10121,7 +10066,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="383" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="383" spans="2:10">
       <c r="B383" t="s">
         <v>47</v>
       </c>
@@ -10141,7 +10086,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="384" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="384" spans="2:10">
       <c r="B384" t="s">
         <v>47</v>
       </c>
@@ -10158,7 +10103,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="385" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="385" spans="2:10">
       <c r="B385" t="s">
         <v>47</v>
       </c>
@@ -10178,7 +10123,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="386" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="386" spans="2:10">
       <c r="B386" t="s">
         <v>47</v>
       </c>
@@ -10195,7 +10140,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="387" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="387" spans="2:10">
       <c r="B387" t="s">
         <v>47</v>
       </c>
@@ -10215,7 +10160,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="388" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="388" spans="2:10">
       <c r="B388" t="s">
         <v>47</v>
       </c>
@@ -10232,7 +10177,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="389" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="389" spans="2:10">
       <c r="B389" t="s">
         <v>47</v>
       </c>
@@ -10252,7 +10197,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="390" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="390" spans="2:10">
       <c r="B390" t="s">
         <v>48</v>
       </c>
@@ -10272,7 +10217,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="391" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="391" spans="2:10">
       <c r="B391" t="s">
         <v>48</v>
       </c>
@@ -10289,7 +10234,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="392" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="392" spans="2:10">
       <c r="B392" t="s">
         <v>48</v>
       </c>
@@ -10309,7 +10254,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="393" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="393" spans="2:10">
       <c r="B393" t="s">
         <v>48</v>
       </c>
@@ -10326,7 +10271,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="394" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="394" spans="2:10">
       <c r="B394" t="s">
         <v>48</v>
       </c>
@@ -10346,7 +10291,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="395" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="395" spans="2:10">
       <c r="B395" t="s">
         <v>48</v>
       </c>
@@ -10363,7 +10308,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="396" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="396" spans="2:10">
       <c r="B396" t="s">
         <v>48</v>
       </c>
@@ -10383,7 +10328,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="397" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="397" spans="2:10">
       <c r="B397" t="s">
         <v>48</v>
       </c>
@@ -10400,7 +10345,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="398" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="398" spans="2:10">
       <c r="B398" t="s">
         <v>48</v>
       </c>
@@ -10420,7 +10365,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="399" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="399" spans="2:10">
       <c r="B399" t="s">
         <v>48</v>
       </c>
@@ -10437,7 +10382,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="400" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="400" spans="2:10">
       <c r="B400" t="s">
         <v>48</v>
       </c>
@@ -10457,7 +10402,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="401" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="401" spans="2:10">
       <c r="B401" t="s">
         <v>48</v>
       </c>
@@ -10474,7 +10419,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="402" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="402" spans="2:10">
       <c r="B402" t="s">
         <v>48</v>
       </c>
@@ -10494,7 +10439,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="403" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="403" spans="2:10">
       <c r="B403" t="s">
         <v>48</v>
       </c>
@@ -10514,7 +10459,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="404" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="404" spans="2:10">
       <c r="B404" t="s">
         <v>49</v>
       </c>
@@ -10528,7 +10473,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="405" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="405" spans="2:10">
       <c r="B405" t="s">
         <v>49</v>
       </c>
@@ -10545,7 +10490,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="406" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="406" spans="2:10">
       <c r="B406" t="s">
         <v>49</v>
       </c>
@@ -10562,7 +10507,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="407" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="407" spans="2:10">
       <c r="B407" t="s">
         <v>49</v>
       </c>
@@ -10582,7 +10527,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="408" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="408" spans="2:10">
       <c r="B408" t="s">
         <v>49</v>
       </c>
@@ -10602,7 +10547,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="409" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="409" spans="2:10">
       <c r="B409" t="s">
         <v>49</v>
       </c>
@@ -10622,7 +10567,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="410" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="410" spans="2:10">
       <c r="B410" t="s">
         <v>49</v>
       </c>
@@ -10642,7 +10587,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="411" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="411" spans="2:10">
       <c r="B411" t="s">
         <v>49</v>
       </c>
@@ -10662,7 +10607,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="412" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="412" spans="2:10">
       <c r="B412" t="s">
         <v>49</v>
       </c>
@@ -10682,7 +10627,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="413" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="413" spans="2:10">
       <c r="B413" t="s">
         <v>49</v>
       </c>
@@ -10702,7 +10647,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="414" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="414" spans="2:10">
       <c r="B414" t="s">
         <v>49</v>
       </c>
@@ -10722,7 +10667,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="415" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="415" spans="2:10">
       <c r="B415" t="s">
         <v>50</v>
       </c>
@@ -10739,7 +10684,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="416" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="416" spans="2:10">
       <c r="B416" t="s">
         <v>50</v>
       </c>
@@ -10756,7 +10701,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="417" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="417" spans="2:10">
       <c r="B417" t="s">
         <v>50</v>
       </c>
@@ -10773,7 +10718,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="418" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="418" spans="2:10">
       <c r="B418" t="s">
         <v>50</v>
       </c>
@@ -10793,7 +10738,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="419" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="419" spans="2:10">
       <c r="B419" t="s">
         <v>50</v>
       </c>
@@ -10810,7 +10755,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="420" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="420" spans="2:10">
       <c r="B420" t="s">
         <v>50</v>
       </c>
@@ -10830,7 +10775,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="421" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="421" spans="2:10">
       <c r="B421" t="s">
         <v>50</v>
       </c>
@@ -10847,7 +10792,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="422" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="422" spans="2:10">
       <c r="B422" t="s">
         <v>50</v>
       </c>
@@ -10867,7 +10812,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="423" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="423" spans="2:10">
       <c r="B423" t="s">
         <v>50</v>
       </c>
@@ -10884,7 +10829,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="424" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="424" spans="2:10">
       <c r="B424" t="s">
         <v>50</v>
       </c>
@@ -10904,7 +10849,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="425" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="425" spans="2:10">
       <c r="B425" t="s">
         <v>50</v>
       </c>
@@ -10921,7 +10866,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="426" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="426" spans="2:10">
       <c r="B426" t="s">
         <v>50</v>
       </c>
@@ -10941,7 +10886,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="427" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="427" spans="2:10">
       <c r="B427" t="s">
         <v>50</v>
       </c>
@@ -10958,7 +10903,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="428" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="428" spans="2:10">
       <c r="B428" t="s">
         <v>50</v>
       </c>
@@ -10978,7 +10923,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="429" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="429" spans="2:10">
       <c r="B429" t="s">
         <v>50</v>
       </c>
@@ -10995,7 +10940,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="430" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="430" spans="2:10">
       <c r="B430" t="s">
         <v>50</v>
       </c>
@@ -11015,7 +10960,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="431" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="431" spans="2:10">
       <c r="B431" t="s">
         <v>50</v>
       </c>
@@ -11032,7 +10977,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="432" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="432" spans="2:10">
       <c r="B432" t="s">
         <v>50</v>
       </c>
@@ -11052,7 +10997,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="433" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="433" spans="2:10">
       <c r="B433" t="s">
         <v>51</v>
       </c>
@@ -11069,7 +11014,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="434" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="434" spans="2:10">
       <c r="B434" t="s">
         <v>51</v>
       </c>
@@ -11089,7 +11034,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="435" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="435" spans="2:10">
       <c r="B435" t="s">
         <v>51</v>
       </c>
@@ -11106,7 +11051,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="436" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="436" spans="2:10">
       <c r="B436" t="s">
         <v>51</v>
       </c>
@@ -11126,7 +11071,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="437" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="437" spans="2:10">
       <c r="B437" t="s">
         <v>51</v>
       </c>
@@ -11143,7 +11088,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="438" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="438" spans="2:10">
       <c r="B438" t="s">
         <v>51</v>
       </c>
@@ -11163,7 +11108,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="439" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="439" spans="2:10">
       <c r="B439" t="s">
         <v>51</v>
       </c>
@@ -11180,7 +11125,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="440" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="440" spans="2:10">
       <c r="B440" t="s">
         <v>51</v>
       </c>
@@ -11200,7 +11145,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="441" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="441" spans="2:10">
       <c r="B441" t="s">
         <v>51</v>
       </c>
@@ -11217,7 +11162,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="442" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="442" spans="2:10">
       <c r="B442" t="s">
         <v>51</v>
       </c>
@@ -11237,7 +11182,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="443" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="443" spans="2:10">
       <c r="B443" t="s">
         <v>51</v>
       </c>
@@ -11254,7 +11199,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="444" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="444" spans="2:10">
       <c r="B444" t="s">
         <v>51</v>
       </c>
@@ -11274,7 +11219,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="445" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="445" spans="2:10">
       <c r="B445" t="s">
         <v>51</v>
       </c>
@@ -11291,7 +11236,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="446" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="446" spans="2:10">
       <c r="B446" t="s">
         <v>51</v>
       </c>
@@ -11311,7 +11256,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="447" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="447" spans="2:10">
       <c r="B447" t="s">
         <v>51</v>
       </c>
@@ -11328,7 +11273,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="448" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="448" spans="2:10">
       <c r="B448" t="s">
         <v>51</v>
       </c>
@@ -11348,7 +11293,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="449" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="449" spans="2:10">
       <c r="B449" t="s">
         <v>52</v>
       </c>
@@ -11365,7 +11310,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="450" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="450" spans="2:10">
       <c r="B450" t="s">
         <v>52</v>
       </c>
@@ -11382,7 +11327,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="451" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="451" spans="2:10">
       <c r="B451" t="s">
         <v>52</v>
       </c>
@@ -11399,7 +11344,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="452" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="452" spans="2:10">
       <c r="B452" t="s">
         <v>52</v>
       </c>
@@ -11419,7 +11364,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="453" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="453" spans="2:10">
       <c r="B453" t="s">
         <v>52</v>
       </c>
@@ -11436,7 +11381,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="454" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="454" spans="2:10">
       <c r="B454" t="s">
         <v>52</v>
       </c>
@@ -11456,7 +11401,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="455" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="455" spans="2:10">
       <c r="B455" t="s">
         <v>52</v>
       </c>
@@ -11473,7 +11418,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="456" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="456" spans="2:10">
       <c r="B456" t="s">
         <v>52</v>
       </c>
@@ -11493,7 +11438,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="457" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="457" spans="2:10">
       <c r="B457" t="s">
         <v>52</v>
       </c>
@@ -11510,7 +11455,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="458" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="458" spans="2:10">
       <c r="B458" t="s">
         <v>52</v>
       </c>
@@ -11530,7 +11475,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="459" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="459" spans="2:10">
       <c r="B459" t="s">
         <v>52</v>
       </c>
@@ -11547,7 +11492,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="460" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="460" spans="2:10">
       <c r="B460" t="s">
         <v>52</v>
       </c>
@@ -11567,7 +11512,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="461" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="461" spans="2:10">
       <c r="B461" t="s">
         <v>52</v>
       </c>
@@ -11584,7 +11529,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="462" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="462" spans="2:10">
       <c r="B462" t="s">
         <v>52</v>
       </c>
@@ -11604,7 +11549,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="463" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="463" spans="2:10">
       <c r="B463" t="s">
         <v>52</v>
       </c>
@@ -11621,7 +11566,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="464" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="464" spans="2:10">
       <c r="B464" t="s">
         <v>52</v>
       </c>
@@ -11641,7 +11586,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="465" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="465" spans="2:10">
       <c r="B465" t="s">
         <v>52</v>
       </c>
@@ -11658,7 +11603,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="466" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="466" spans="2:10">
       <c r="B466" t="s">
         <v>52</v>
       </c>
@@ -11678,7 +11623,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="467" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="467" spans="2:10">
       <c r="B467" t="s">
         <v>53</v>
       </c>
@@ -11698,7 +11643,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="468" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="468" spans="2:10">
       <c r="B468" t="s">
         <v>53</v>
       </c>
@@ -11715,7 +11660,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="469" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="469" spans="2:10">
       <c r="B469" t="s">
         <v>53</v>
       </c>
@@ -11735,7 +11680,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="470" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="470" spans="2:10">
       <c r="B470" t="s">
         <v>53</v>
       </c>
@@ -11752,7 +11697,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="471" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="471" spans="2:10">
       <c r="B471" t="s">
         <v>53</v>
       </c>
@@ -11772,7 +11717,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="472" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="472" spans="2:10">
       <c r="B472" t="s">
         <v>53</v>
       </c>
@@ -11789,7 +11734,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="473" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="473" spans="2:10">
       <c r="B473" t="s">
         <v>53</v>
       </c>
@@ -11809,7 +11754,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="474" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="474" spans="2:10">
       <c r="B474" t="s">
         <v>53</v>
       </c>
@@ -11829,7 +11774,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="475" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="475" spans="2:10">
       <c r="B475" t="s">
         <v>53</v>
       </c>
@@ -11846,7 +11791,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="476" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="476" spans="2:10">
       <c r="B476" t="s">
         <v>53</v>
       </c>
@@ -11866,7 +11811,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="477" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="477" spans="2:10">
       <c r="B477" t="s">
         <v>53</v>
       </c>
@@ -11883,7 +11828,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="478" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="478" spans="2:10">
       <c r="B478" t="s">
         <v>53</v>
       </c>
@@ -11903,7 +11848,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="479" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="479" spans="2:10">
       <c r="B479" t="s">
         <v>53</v>
       </c>
@@ -11923,7 +11868,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="480" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="480" spans="2:10">
       <c r="B480" t="s">
         <v>53</v>
       </c>
@@ -11940,7 +11885,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="481" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="481" spans="2:10">
       <c r="B481" t="s">
         <v>53</v>
       </c>
@@ -11960,7 +11905,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="482" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="482" spans="2:10">
       <c r="B482" t="s">
         <v>53</v>
       </c>
@@ -11977,7 +11922,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="483" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="483" spans="2:10">
       <c r="B483" t="s">
         <v>53</v>
       </c>
@@ -11997,7 +11942,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="484" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="484" spans="2:10">
       <c r="B484" t="s">
         <v>53</v>
       </c>
@@ -12017,7 +11962,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="485" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="485" spans="2:10">
       <c r="B485" t="s">
         <v>53</v>
       </c>
@@ -12034,7 +11979,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="486" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="486" spans="2:10">
       <c r="B486" t="s">
         <v>53</v>
       </c>
@@ -12054,7 +11999,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="487" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="487" spans="2:10">
       <c r="B487" t="s">
         <v>53</v>
       </c>
@@ -12071,7 +12016,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="488" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="488" spans="2:10">
       <c r="B488" t="s">
         <v>53</v>
       </c>
@@ -12091,7 +12036,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="489" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="489" spans="2:10">
       <c r="B489" t="s">
         <v>54</v>
       </c>
@@ -12108,7 +12053,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="490" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="490" spans="2:10">
       <c r="B490" t="s">
         <v>54</v>
       </c>
@@ -12128,7 +12073,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="491" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="491" spans="2:10">
       <c r="B491" t="s">
         <v>54</v>
       </c>
@@ -12145,7 +12090,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="492" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="492" spans="2:10">
       <c r="B492" t="s">
         <v>54</v>
       </c>
@@ -12165,7 +12110,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="493" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="493" spans="2:10">
       <c r="B493" t="s">
         <v>54</v>
       </c>
@@ -12182,7 +12127,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="494" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="494" spans="2:10">
       <c r="B494" t="s">
         <v>54</v>
       </c>
@@ -12202,7 +12147,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="495" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="495" spans="2:10">
       <c r="B495" t="s">
         <v>54</v>
       </c>
@@ -12219,7 +12164,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="496" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="496" spans="2:10">
       <c r="B496" t="s">
         <v>54</v>
       </c>
@@ -12239,7 +12184,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="497" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="497" spans="2:10">
       <c r="B497" t="s">
         <v>55</v>
       </c>
@@ -12256,7 +12201,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="498" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="498" spans="2:10">
       <c r="B498" t="s">
         <v>55</v>
       </c>
@@ -12276,7 +12221,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="499" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="499" spans="2:10">
       <c r="B499" t="s">
         <v>55</v>
       </c>
@@ -12293,7 +12238,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="500" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="500" spans="2:10">
       <c r="B500" t="s">
         <v>55</v>
       </c>
@@ -12313,7 +12258,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="501" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="501" spans="2:10">
       <c r="B501" t="s">
         <v>55</v>
       </c>
@@ -12330,7 +12275,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="502" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="502" spans="2:10">
       <c r="B502" t="s">
         <v>55</v>
       </c>
@@ -12350,7 +12295,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="503" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="503" spans="2:10">
       <c r="B503" t="s">
         <v>55</v>
       </c>
@@ -12367,7 +12312,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="504" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="504" spans="2:10">
       <c r="B504" t="s">
         <v>55</v>
       </c>
@@ -12387,7 +12332,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="505" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="505" spans="2:10">
       <c r="B505" t="s">
         <v>55</v>
       </c>
@@ -12404,7 +12349,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="506" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="506" spans="2:10">
       <c r="B506" t="s">
         <v>55</v>
       </c>
@@ -12424,7 +12369,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="507" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="507" spans="2:10">
       <c r="B507" t="s">
         <v>55</v>
       </c>
@@ -12441,7 +12386,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="508" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="508" spans="2:10">
       <c r="B508" t="s">
         <v>55</v>
       </c>
@@ -12461,7 +12406,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="509" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="509" spans="2:10">
       <c r="B509" t="s">
         <v>55</v>
       </c>
@@ -12478,7 +12423,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="510" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="510" spans="2:10">
       <c r="B510" t="s">
         <v>55</v>
       </c>
@@ -12498,7 +12443,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="511" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="511" spans="2:10">
       <c r="B511" t="s">
         <v>55</v>
       </c>
@@ -12518,7 +12463,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="512" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="512" spans="2:10">
       <c r="B512" t="s">
         <v>56</v>
       </c>
@@ -12535,7 +12480,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="513" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="513" spans="2:10">
       <c r="B513" t="s">
         <v>56</v>
       </c>
@@ -12555,7 +12500,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="514" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="514" spans="2:10">
       <c r="B514" t="s">
         <v>56</v>
       </c>
@@ -12572,7 +12517,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="515" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="515" spans="2:10">
       <c r="B515" t="s">
         <v>56</v>
       </c>
@@ -12592,7 +12537,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="516" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="516" spans="2:10">
       <c r="B516" t="s">
         <v>56</v>
       </c>
@@ -12609,7 +12554,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="517" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="517" spans="2:10">
       <c r="B517" t="s">
         <v>56</v>
       </c>
@@ -12629,7 +12574,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="518" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="518" spans="2:10">
       <c r="B518" t="s">
         <v>56</v>
       </c>
@@ -12646,7 +12591,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="519" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="519" spans="2:10">
       <c r="B519" t="s">
         <v>56</v>
       </c>
@@ -12666,7 +12611,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="520" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="520" spans="2:10">
       <c r="B520" t="s">
         <v>56</v>
       </c>
@@ -12683,7 +12628,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="521" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="521" spans="2:10">
       <c r="B521" t="s">
         <v>56</v>
       </c>
@@ -12703,7 +12648,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="522" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="522" spans="2:10">
       <c r="B522" t="s">
         <v>56</v>
       </c>
@@ -12720,7 +12665,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="523" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="523" spans="2:10">
       <c r="B523" t="s">
         <v>56</v>
       </c>
@@ -12740,7 +12685,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="524" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="524" spans="2:10">
       <c r="B524" t="s">
         <v>57</v>
       </c>
@@ -12757,7 +12702,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="525" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="525" spans="2:10">
       <c r="B525" t="s">
         <v>57</v>
       </c>
@@ -12777,7 +12722,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="526" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="526" spans="2:10">
       <c r="B526" t="s">
         <v>57</v>
       </c>
@@ -12794,7 +12739,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="527" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="527" spans="2:10">
       <c r="B527" t="s">
         <v>57</v>
       </c>
@@ -12814,7 +12759,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="528" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="528" spans="2:10">
       <c r="B528" t="s">
         <v>57</v>
       </c>
@@ -12831,7 +12776,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="529" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="529" spans="2:10">
       <c r="B529" t="s">
         <v>57</v>
       </c>
@@ -12851,7 +12796,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="530" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="530" spans="2:10">
       <c r="B530" t="s">
         <v>57</v>
       </c>
@@ -12868,7 +12813,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="531" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="531" spans="2:10">
       <c r="B531" t="s">
         <v>57</v>
       </c>
@@ -12888,7 +12833,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="532" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="532" spans="2:10">
       <c r="B532" t="s">
         <v>58</v>
       </c>
@@ -12905,7 +12850,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="533" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="533" spans="2:10">
       <c r="B533" t="s">
         <v>58</v>
       </c>
@@ -12925,7 +12870,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="534" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="534" spans="2:10">
       <c r="B534" t="s">
         <v>58</v>
       </c>
@@ -12942,7 +12887,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="535" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="535" spans="2:10">
       <c r="B535" t="s">
         <v>58</v>
       </c>
@@ -12962,7 +12907,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="536" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="536" spans="2:10">
       <c r="B536" t="s">
         <v>58</v>
       </c>
@@ -12979,7 +12924,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="537" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="537" spans="2:10">
       <c r="B537" t="s">
         <v>58</v>
       </c>
@@ -12999,7 +12944,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="538" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="538" spans="2:10">
       <c r="B538" t="s">
         <v>58</v>
       </c>
@@ -13016,7 +12961,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="539" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="539" spans="2:10">
       <c r="B539" t="s">
         <v>58</v>
       </c>
@@ -13036,7 +12981,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="540" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="540" spans="2:10">
       <c r="B540" t="s">
         <v>59</v>
       </c>
@@ -13053,7 +12998,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="541" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="541" spans="2:10">
       <c r="B541" t="s">
         <v>59</v>
       </c>
@@ -13073,7 +13018,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="542" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="542" spans="2:10">
       <c r="B542" t="s">
         <v>59</v>
       </c>
@@ -13090,7 +13035,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="543" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="543" spans="2:10">
       <c r="B543" t="s">
         <v>59</v>
       </c>
@@ -13110,7 +13055,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="544" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="544" spans="2:10">
       <c r="B544" t="s">
         <v>59</v>
       </c>
@@ -13127,7 +13072,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="545" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="545" spans="2:10">
       <c r="B545" t="s">
         <v>59</v>
       </c>
@@ -13147,7 +13092,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="546" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="546" spans="2:10">
       <c r="B546" t="s">
         <v>59</v>
       </c>
@@ -13164,7 +13109,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="547" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="547" spans="2:10">
       <c r="B547" t="s">
         <v>59</v>
       </c>
@@ -13184,7 +13129,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="548" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="548" spans="2:10">
       <c r="B548" t="s">
         <v>60</v>
       </c>
@@ -13201,7 +13146,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="549" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="549" spans="2:10">
       <c r="B549" t="s">
         <v>60</v>
       </c>
@@ -13218,7 +13163,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="550" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="550" spans="2:10">
       <c r="B550" t="s">
         <v>60</v>
       </c>
@@ -13235,7 +13180,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="551" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="551" spans="2:10">
       <c r="B551" t="s">
         <v>60</v>
       </c>
@@ -13255,7 +13200,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="552" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="552" spans="2:10">
       <c r="B552" t="s">
         <v>60</v>
       </c>
@@ -13272,7 +13217,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="553" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="553" spans="2:10">
       <c r="B553" t="s">
         <v>60</v>
       </c>
@@ -13292,7 +13237,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="554" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="554" spans="2:10">
       <c r="B554" t="s">
         <v>60</v>
       </c>
@@ -13309,7 +13254,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="555" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="555" spans="2:10">
       <c r="B555" t="s">
         <v>60</v>
       </c>
@@ -13329,7 +13274,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="556" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="556" spans="2:10">
       <c r="B556" t="s">
         <v>60</v>
       </c>
@@ -13346,7 +13291,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="557" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="557" spans="2:10">
       <c r="B557" t="s">
         <v>60</v>
       </c>
@@ -13366,7 +13311,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="558" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="558" spans="2:10">
       <c r="B558" t="s">
         <v>60</v>
       </c>
@@ -13383,7 +13328,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="559" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="559" spans="2:10">
       <c r="B559" t="s">
         <v>60</v>
       </c>
@@ -13403,7 +13348,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="560" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="560" spans="2:10">
       <c r="B560" t="s">
         <v>60</v>
       </c>
@@ -13420,7 +13365,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="561" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="561" spans="2:10">
       <c r="B561" t="s">
         <v>60</v>
       </c>
@@ -13440,7 +13385,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="562" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="562" spans="2:10">
       <c r="B562" t="s">
         <v>60</v>
       </c>
@@ -13457,7 +13402,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="563" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="563" spans="2:10">
       <c r="B563" t="s">
         <v>60</v>
       </c>
@@ -13477,7 +13422,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="564" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="564" spans="2:10">
       <c r="B564" t="s">
         <v>60</v>
       </c>
@@ -13494,7 +13439,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="565" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="565" spans="2:10">
       <c r="B565" t="s">
         <v>60</v>
       </c>
@@ -13514,7 +13459,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="566" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="566" spans="2:10">
       <c r="B566" t="s">
         <v>61</v>
       </c>
@@ -13531,7 +13476,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="567" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="567" spans="2:10">
       <c r="B567" t="s">
         <v>61</v>
       </c>
@@ -13551,7 +13496,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="568" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="568" spans="2:10">
       <c r="B568" t="s">
         <v>61</v>
       </c>
@@ -13568,7 +13513,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="569" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="569" spans="2:10">
       <c r="B569" t="s">
         <v>61</v>
       </c>
@@ -13588,7 +13533,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="570" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="570" spans="2:10">
       <c r="B570" t="s">
         <v>61</v>
       </c>
@@ -13605,7 +13550,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="571" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="571" spans="2:10">
       <c r="B571" t="s">
         <v>61</v>
       </c>
@@ -13625,7 +13570,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="572" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="572" spans="2:10">
       <c r="B572" t="s">
         <v>61</v>
       </c>
@@ -13642,7 +13587,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="573" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="573" spans="2:10">
       <c r="B573" t="s">
         <v>61</v>
       </c>
@@ -13662,7 +13607,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="574" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="574" spans="2:10">
       <c r="B574" t="s">
         <v>61</v>
       </c>
@@ -13679,7 +13624,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="575" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="575" spans="2:10">
       <c r="B575" t="s">
         <v>61</v>
       </c>
@@ -13699,7 +13644,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="576" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="576" spans="2:10">
       <c r="B576" t="s">
         <v>61</v>
       </c>
@@ -13716,7 +13661,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="577" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="577" spans="2:10">
       <c r="B577" t="s">
         <v>61</v>
       </c>
@@ -13736,7 +13681,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="578" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="578" spans="2:10">
       <c r="B578" t="s">
         <v>61</v>
       </c>
@@ -13753,7 +13698,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="579" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="579" spans="2:10">
       <c r="B579" t="s">
         <v>61</v>
       </c>
@@ -13773,7 +13718,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="580" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="580" spans="2:10">
       <c r="B580" t="s">
         <v>61</v>
       </c>
@@ -13790,7 +13735,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="581" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="581" spans="2:10">
       <c r="B581" t="s">
         <v>61</v>
       </c>
@@ -13810,7 +13755,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="582" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="582" spans="2:10">
       <c r="B582" t="s">
         <v>62</v>
       </c>
@@ -13827,7 +13772,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="583" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="583" spans="2:10">
       <c r="B583" t="s">
         <v>62</v>
       </c>
@@ -13844,7 +13789,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="584" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="584" spans="2:10">
       <c r="B584" t="s">
         <v>62</v>
       </c>
@@ -13861,7 +13806,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="585" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="585" spans="2:10">
       <c r="B585" t="s">
         <v>62</v>
       </c>
@@ -13881,7 +13826,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="586" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="586" spans="2:10">
       <c r="B586" t="s">
         <v>62</v>
       </c>
@@ -13898,7 +13843,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="587" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="587" spans="2:10">
       <c r="B587" t="s">
         <v>62</v>
       </c>
@@ -13918,7 +13863,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="588" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="588" spans="2:10">
       <c r="B588" t="s">
         <v>62</v>
       </c>
@@ -13935,7 +13880,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="589" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="589" spans="2:10">
       <c r="B589" t="s">
         <v>62</v>
       </c>
@@ -13955,7 +13900,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="590" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="590" spans="2:10">
       <c r="B590" t="s">
         <v>62</v>
       </c>
@@ -13972,7 +13917,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="591" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="591" spans="2:10">
       <c r="B591" t="s">
         <v>62</v>
       </c>
@@ -13992,7 +13937,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="592" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="592" spans="2:10">
       <c r="B592" t="s">
         <v>62</v>
       </c>
@@ -14009,7 +13954,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="593" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="593" spans="2:10">
       <c r="B593" t="s">
         <v>62</v>
       </c>
@@ -14029,7 +13974,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="594" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="594" spans="2:10">
       <c r="B594" t="s">
         <v>62</v>
       </c>
@@ -14046,7 +13991,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="595" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="595" spans="2:10">
       <c r="B595" t="s">
         <v>62</v>
       </c>
@@ -14066,7 +14011,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="596" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="596" spans="2:10">
       <c r="B596" t="s">
         <v>62</v>
       </c>
@@ -14083,7 +14028,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="597" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="597" spans="2:10">
       <c r="B597" t="s">
         <v>62</v>
       </c>
@@ -14103,7 +14048,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="598" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="598" spans="2:10">
       <c r="B598" t="s">
         <v>62</v>
       </c>
@@ -14120,7 +14065,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="599" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="599" spans="2:10">
       <c r="B599" t="s">
         <v>62</v>
       </c>
@@ -14140,7 +14085,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="600" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="600" spans="2:10">
       <c r="B600" t="s">
         <v>63</v>
       </c>
@@ -14157,7 +14102,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="601" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="601" spans="2:10">
       <c r="B601" t="s">
         <v>63</v>
       </c>
@@ -14174,7 +14119,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="602" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="602" spans="2:10">
       <c r="B602" t="s">
         <v>63</v>
       </c>
@@ -14191,7 +14136,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="603" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="603" spans="2:10">
       <c r="B603" t="s">
         <v>63</v>
       </c>
@@ -14211,7 +14156,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="604" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="604" spans="2:10">
       <c r="B604" t="s">
         <v>63</v>
       </c>
@@ -14228,7 +14173,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="605" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="605" spans="2:10">
       <c r="B605" t="s">
         <v>63</v>
       </c>
@@ -14248,7 +14193,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="606" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="606" spans="2:10">
       <c r="B606" t="s">
         <v>63</v>
       </c>
@@ -14265,7 +14210,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="607" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="607" spans="2:10">
       <c r="B607" t="s">
         <v>63</v>
       </c>
@@ -14285,7 +14230,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="608" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="608" spans="2:10">
       <c r="B608" t="s">
         <v>63</v>
       </c>
@@ -14302,7 +14247,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="609" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="609" spans="2:10">
       <c r="B609" t="s">
         <v>63</v>
       </c>
@@ -14322,7 +14267,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="610" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="610" spans="2:10">
       <c r="B610" t="s">
         <v>63</v>
       </c>
@@ -14339,7 +14284,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="611" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="611" spans="2:10">
       <c r="B611" t="s">
         <v>63</v>
       </c>
@@ -14359,7 +14304,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="612" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="612" spans="2:10">
       <c r="B612" t="s">
         <v>63</v>
       </c>
@@ -14376,7 +14321,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="613" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="613" spans="2:10">
       <c r="B613" t="s">
         <v>63</v>
       </c>
@@ -14396,7 +14341,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="614" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="614" spans="2:10">
       <c r="B614" t="s">
         <v>63</v>
       </c>
@@ -14413,7 +14358,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="615" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="615" spans="2:10">
       <c r="B615" t="s">
         <v>63</v>
       </c>
@@ -14433,7 +14378,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="616" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="616" spans="2:10">
       <c r="B616" t="s">
         <v>64</v>
       </c>
@@ -14453,7 +14398,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="617" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="617" spans="2:10">
       <c r="B617" t="s">
         <v>64</v>
       </c>
@@ -14473,7 +14418,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="618" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="618" spans="2:10">
       <c r="B618" t="s">
         <v>64</v>
       </c>
@@ -14490,7 +14435,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="619" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="619" spans="2:10">
       <c r="B619" t="s">
         <v>64</v>
       </c>
@@ -14510,7 +14455,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="620" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="620" spans="2:10">
       <c r="B620" t="s">
         <v>64</v>
       </c>
@@ -14530,7 +14475,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="621" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="621" spans="2:10">
       <c r="B621" t="s">
         <v>65</v>
       </c>
@@ -14547,7 +14492,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="622" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="622" spans="2:10">
       <c r="B622" t="s">
         <v>65</v>
       </c>
@@ -14567,7 +14512,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="623" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="623" spans="2:10">
       <c r="B623" t="s">
         <v>65</v>
       </c>
@@ -14584,7 +14529,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="624" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="624" spans="2:10">
       <c r="B624" t="s">
         <v>65</v>
       </c>
@@ -14604,7 +14549,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="625" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="625" spans="2:10">
       <c r="B625" t="s">
         <v>65</v>
       </c>
@@ -14621,7 +14566,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="626" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="626" spans="2:10">
       <c r="B626" t="s">
         <v>65</v>
       </c>
@@ -14641,7 +14586,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="627" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="627" spans="2:10">
       <c r="B627" t="s">
         <v>65</v>
       </c>
@@ -14661,7 +14606,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="628" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="628" spans="2:10">
       <c r="B628" t="s">
         <v>66</v>
       </c>
@@ -14678,7 +14623,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="629" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="629" spans="2:10">
       <c r="B629" t="s">
         <v>66</v>
       </c>
@@ -14698,7 +14643,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="630" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="630" spans="2:10">
       <c r="B630" t="s">
         <v>66</v>
       </c>
@@ -14718,7 +14663,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="631" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="631" spans="2:10">
       <c r="B631" t="s">
         <v>66</v>
       </c>
@@ -14735,7 +14680,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="632" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="632" spans="2:10">
       <c r="B632" t="s">
         <v>66</v>
       </c>
@@ -14755,7 +14700,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="633" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="633" spans="2:10">
       <c r="B633" t="s">
         <v>66</v>
       </c>
@@ -14772,7 +14717,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="634" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="634" spans="2:10">
       <c r="B634" t="s">
         <v>66</v>
       </c>
@@ -14792,7 +14737,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="635" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="635" spans="2:10">
       <c r="B635" t="s">
         <v>66</v>
       </c>
@@ -14809,7 +14754,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="636" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="636" spans="2:10">
       <c r="B636" t="s">
         <v>66</v>
       </c>
@@ -14829,7 +14774,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="637" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="637" spans="2:10">
       <c r="B637" t="s">
         <v>66</v>
       </c>
@@ -14849,7 +14794,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="638" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="638" spans="2:10">
       <c r="B638" t="s">
         <v>66</v>
       </c>
@@ -14869,7 +14814,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="639" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="639" spans="2:10">
       <c r="B639" t="s">
         <v>66</v>
       </c>
@@ -14889,7 +14834,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="640" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="640" spans="2:10">
       <c r="B640" t="s">
         <v>66</v>
       </c>
@@ -14909,7 +14854,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="641" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="641" spans="2:10">
       <c r="B641" t="s">
         <v>66</v>
       </c>
@@ -14926,7 +14871,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="642" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="642" spans="2:10">
       <c r="B642" t="s">
         <v>66</v>
       </c>
@@ -14946,7 +14891,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="643" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="643" spans="2:10">
       <c r="B643" t="s">
         <v>66</v>
       </c>
@@ -14963,7 +14908,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="644" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="644" spans="2:10">
       <c r="B644" t="s">
         <v>66</v>
       </c>
@@ -14983,7 +14928,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="645" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="645" spans="2:10">
       <c r="B645" t="s">
         <v>66</v>
       </c>
@@ -15003,7 +14948,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="646" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="646" spans="2:10">
       <c r="B646" t="s">
         <v>66</v>
       </c>
@@ -15020,7 +14965,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="647" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="647" spans="2:10">
       <c r="B647" t="s">
         <v>66</v>
       </c>
@@ -15040,7 +14985,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="648" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="648" spans="2:10">
       <c r="B648" t="s">
         <v>66</v>
       </c>
@@ -15057,7 +15002,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="649" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="649" spans="2:10">
       <c r="B649" t="s">
         <v>66</v>
       </c>
@@ -15077,7 +15022,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="650" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="650" spans="2:10">
       <c r="B650" t="s">
         <v>67</v>
       </c>
@@ -15094,7 +15039,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="651" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="651" spans="2:10">
       <c r="B651" t="s">
         <v>67</v>
       </c>
@@ -15114,7 +15059,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="652" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="652" spans="2:10">
       <c r="B652" t="s">
         <v>67</v>
       </c>
@@ -15131,7 +15076,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="653" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="653" spans="2:10">
       <c r="B653" t="s">
         <v>67</v>
       </c>
@@ -15151,7 +15096,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="654" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="654" spans="2:10">
       <c r="B654" t="s">
         <v>67</v>
       </c>
@@ -15168,7 +15113,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="655" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="655" spans="2:10">
       <c r="B655" t="s">
         <v>67</v>
       </c>
@@ -15188,7 +15133,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="656" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="656" spans="2:10">
       <c r="B656" t="s">
         <v>67</v>
       </c>
@@ -15208,7 +15153,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="657" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="657" spans="2:10">
       <c r="B657" t="s">
         <v>67</v>
       </c>
@@ -15225,7 +15170,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="658" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="658" spans="2:10">
       <c r="B658" t="s">
         <v>67</v>
       </c>
@@ -15245,7 +15190,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="659" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="659" spans="2:10">
       <c r="B659" t="s">
         <v>67</v>
       </c>
@@ -15262,7 +15207,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="660" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="660" spans="2:10">
       <c r="B660" t="s">
         <v>67</v>
       </c>
@@ -15282,7 +15227,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="661" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="661" spans="2:10">
       <c r="B661" t="s">
         <v>67</v>
       </c>
@@ -15299,7 +15244,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="662" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="662" spans="2:10">
       <c r="B662" t="s">
         <v>67</v>
       </c>
@@ -15319,7 +15264,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="663" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="663" spans="2:10">
       <c r="B663" t="s">
         <v>67</v>
       </c>
@@ -15336,7 +15281,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="664" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="664" spans="2:10">
       <c r="B664" t="s">
         <v>67</v>
       </c>
@@ -15356,7 +15301,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="665" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="665" spans="2:10">
       <c r="B665" t="s">
         <v>68</v>
       </c>
@@ -15376,7 +15321,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="666" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="666" spans="2:10">
       <c r="B666" t="s">
         <v>68</v>
       </c>
@@ -15396,7 +15341,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="667" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="667" spans="2:10">
       <c r="B667" t="s">
         <v>68</v>
       </c>
@@ -15416,7 +15361,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="668" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="668" spans="2:10">
       <c r="B668" t="s">
         <v>68</v>
       </c>
@@ -15436,7 +15381,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="669" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="669" spans="2:10">
       <c r="B669" t="s">
         <v>68</v>
       </c>
@@ -15456,7 +15401,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="670" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="670" spans="2:10">
       <c r="B670" t="s">
         <v>68</v>
       </c>
@@ -15476,7 +15421,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="671" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="671" spans="2:10">
       <c r="B671" t="s">
         <v>68</v>
       </c>
@@ -15496,7 +15441,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="672" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="672" spans="2:10">
       <c r="B672" t="s">
         <v>68</v>
       </c>
@@ -15516,7 +15461,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="673" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="673" spans="2:10">
       <c r="B673" t="s">
         <v>69</v>
       </c>
@@ -15533,7 +15478,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="674" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="674" spans="2:10">
       <c r="B674" t="s">
         <v>69</v>
       </c>
@@ -15550,7 +15495,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="675" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="675" spans="2:10">
       <c r="B675" t="s">
         <v>69</v>
       </c>
@@ -15570,7 +15515,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="676" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="676" spans="2:10">
       <c r="B676" t="s">
         <v>69</v>
       </c>
@@ -15590,7 +15535,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="677" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="677" spans="2:10">
       <c r="B677" t="s">
         <v>69</v>
       </c>
@@ -15610,7 +15555,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="678" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="678" spans="2:10">
       <c r="B678" t="s">
         <v>69</v>
       </c>
@@ -15630,7 +15575,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="679" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="679" spans="2:10">
       <c r="B679" t="s">
         <v>69</v>
       </c>
@@ -15650,7 +15595,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="680" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="680" spans="2:10">
       <c r="B680" t="s">
         <v>69</v>
       </c>
@@ -15670,7 +15615,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="681" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="681" spans="2:10">
       <c r="B681" t="s">
         <v>69</v>
       </c>
@@ -15690,7 +15635,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="682" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="682" spans="2:10">
       <c r="B682" t="s">
         <v>69</v>
       </c>
@@ -15711,23 +15656,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R682" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008A7B740158B06348BBFDD0A82FAE521C" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9af2e30293fc1ae2c5718fcac55aaadf">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="45be6600-ce97-4f91-b2b5-90c5c801df6a" xmlns:ns3="4ff60255-49bc-4e52-8060-8afe9711eecb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bd728ddf0b116993a82566dab177cb1d" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008A7B740158B06348BBFDD0A82FAE521C" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="15f4007343d69c31faccb6c57ce3ea95">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="45be6600-ce97-4f91-b2b5-90c5c801df6a" xmlns:ns3="4ff60255-49bc-4e52-8060-8afe9711eecb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="af64184185331e52028044e26cabcf7e" ns2:_="" ns3:_="">
     <xsd:import namespace="45be6600-ce97-4f91-b2b5-90c5c801df6a"/>
     <xsd:import namespace="4ff60255-49bc-4e52-8060-8afe9711eecb"/>
     <xsd:element name="properties">
@@ -15750,6 +15685,7 @@
                 <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -15820,6 +15756,11 @@
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
         </xsd:sequence>
       </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="23" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="4ff60255-49bc-4e52-8060-8afe9711eecb" elementFormDefault="qualified">
@@ -15962,29 +15903,19 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74C27BB3-C7C7-40E0-A143-B6483D788E79}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3A08A57-3CBC-4699-BBA6-3E1A7F241C66}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43E4540B-D9AA-4DAE-9149-A5F27A578B9C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="45be6600-ce97-4f91-b2b5-90c5c801df6a"/>
-    <ds:schemaRef ds:uri="4ff60255-49bc-4e52-8060-8afe9711eecb"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2EB1DE64-C65D-45B4-862B-EC3631364581}"/>
 </file>